--- a/NEW HR/VARGAS, MELINDA MAALA.xlsx
+++ b/NEW HR/VARGAS, MELINDA MAALA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C460C-EE42-4533-B2F4-C896326B21AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,25 +27,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -228,11 +221,17 @@
   <si>
     <t>1/16,17/2023</t>
   </si>
+  <si>
+    <t>ML(105-0-0)</t>
+  </si>
+  <si>
+    <t>2/6 - 5/21/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -608,9 +607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -620,17 +616,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,27 +834,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1076,27 +1075,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1159,25 +1158,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1189,25 +1188,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1514,93 +1513,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A68" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1608,7 +1607,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1621,24 +1620,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1697,7 +1696,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -1719,7 +1718,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1739,7 +1738,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1759,7 +1758,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1779,7 +1778,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1799,7 +1798,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1819,7 +1818,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1839,7 +1838,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1859,7 +1858,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1879,7 +1878,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -1899,7 +1898,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -1919,7 +1918,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -1939,7 +1938,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -1963,7 +1962,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +1980,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2001,7 +2000,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2021,7 +2020,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2041,7 +2040,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2061,7 +2060,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2081,7 +2080,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2101,7 +2100,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2121,7 +2120,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2141,7 +2140,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2161,7 +2160,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2181,7 +2180,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2201,7 +2200,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2225,7 +2224,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>46</v>
       </c>
@@ -2243,7 +2242,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2263,7 +2262,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2283,7 +2282,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2303,7 +2302,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2323,7 +2322,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2343,7 +2342,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2363,7 +2362,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2383,7 +2382,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2403,7 +2402,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2423,7 +2422,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2443,7 +2442,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2463,7 +2462,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2487,7 +2486,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>47</v>
       </c>
@@ -2505,7 +2504,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2525,7 +2524,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2545,7 +2544,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2565,7 +2564,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2585,7 +2584,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2605,7 +2604,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2625,7 +2624,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2645,7 +2644,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2665,7 +2664,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2685,7 +2684,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2705,7 +2704,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2725,7 +2724,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2749,7 +2748,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
         <v>55</v>
       </c>
@@ -2767,7 +2766,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>44562</v>
       </c>
@@ -2787,7 +2786,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -2807,7 +2806,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>44621</v>
       </c>
@@ -2827,7 +2826,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>44652</v>
       </c>
@@ -2847,7 +2846,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>44682</v>
       </c>
@@ -2867,7 +2866,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>44713</v>
       </c>
@@ -2887,7 +2886,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>44743</v>
       </c>
@@ -2907,7 +2906,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>44774</v>
       </c>
@@ -2927,7 +2926,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="45"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>44805</v>
       </c>
@@ -2947,7 +2946,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="45"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>44835</v>
       </c>
@@ -2967,7 +2966,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="45"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>44866</v>
       </c>
@@ -2987,7 +2986,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>44896</v>
       </c>
@@ -3011,7 +3010,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="45"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
         <v>59</v>
       </c>
@@ -3029,7 +3028,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>44927</v>
       </c>
@@ -3049,7 +3048,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>44958</v>
       </c>
@@ -3069,9 +3068,13 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="20"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="38">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="37"/>
       <c r="E78" s="9"/>
@@ -3083,9 +3086,11 @@
       <c r="H78" s="37"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -3101,7 +3106,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -3117,7 +3122,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3133,7 +3138,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3149,7 +3154,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3165,7 +3170,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3181,7 +3186,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3197,7 +3202,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3213,7 +3218,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3229,7 +3234,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3245,7 +3250,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3261,7 +3266,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3277,7 +3282,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3293,7 +3298,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3309,7 +3314,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3325,7 +3330,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3341,7 +3346,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3357,7 +3362,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3373,7 +3378,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3389,7 +3394,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3405,7 +3410,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3421,7 +3426,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3437,7 +3442,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3453,7 +3458,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3469,7 +3474,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3485,7 +3490,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3501,7 +3506,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3517,7 +3522,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3533,7 +3538,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3549,7 +3554,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3565,7 +3570,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3581,7 +3586,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3597,7 +3602,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3613,7 +3618,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3629,7 +3634,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3645,7 +3650,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3661,7 +3666,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3677,7 +3682,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3693,7 +3698,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3709,7 +3714,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3725,7 +3730,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3741,7 +3746,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3757,7 +3762,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3773,7 +3778,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3789,7 +3794,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39"/>
       <c r="B123" s="15"/>
       <c r="C123" s="40"/>
@@ -3807,23 +3812,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3846,93 +3851,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A8" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3940,7 +3945,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3953,24 +3958,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4029,7 +4034,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>47</v>
       </c>
@@ -4047,7 +4052,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>44197</v>
       </c>
@@ -4069,7 +4074,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>44228</v>
       </c>
@@ -4091,7 +4096,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>44440</v>
       </c>
@@ -4115,7 +4120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -4135,7 +4140,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -4157,7 +4162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>55</v>
       </c>
@@ -4175,7 +4180,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>44713</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>49</v>
@@ -4221,7 +4226,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>44774</v>
       </c>
@@ -4245,7 +4250,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>44805</v>
       </c>
@@ -4269,7 +4274,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>44835</v>
       </c>
@@ -4293,7 +4298,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>44866</v>
       </c>
@@ -4317,7 +4322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>44896</v>
       </c>
@@ -4341,7 +4346,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>59</v>
       </c>
@@ -4359,7 +4364,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>44927</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>44958</v>
       </c>
@@ -4401,7 +4406,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -4417,7 +4422,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -4433,7 +4438,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -4449,7 +4454,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -4465,7 +4470,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -4481,7 +4486,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -4497,7 +4502,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4513,7 +4518,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -4529,7 +4534,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4545,7 +4550,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4561,7 +4566,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4577,7 +4582,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4593,7 +4598,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4609,7 +4614,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4625,7 +4630,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4641,7 +4646,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4657,7 +4662,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4673,7 +4678,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4689,7 +4694,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4705,7 +4710,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4721,7 +4726,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4737,7 +4742,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4753,7 +4758,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4769,7 +4774,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4785,7 +4790,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4801,7 +4806,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4817,7 +4822,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4833,7 +4838,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4849,7 +4854,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4865,7 +4870,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4881,7 +4886,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4897,7 +4902,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4913,7 +4918,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4929,7 +4934,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4945,7 +4950,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4961,7 +4966,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4977,7 +4982,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4993,7 +4998,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5009,7 +5014,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5025,7 +5030,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5041,7 +5046,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5057,7 +5062,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5073,7 +5078,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5089,7 +5094,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5105,7 +5110,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5121,7 +5126,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="15"/>
       <c r="C72" s="40"/>
@@ -5152,10 +5157,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5178,28 +5183,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5212,7 +5217,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5241,7 +5246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>34.548000000000002</v>
       </c>
@@ -5265,17 +5270,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
@@ -5296,7 +5301,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="46">
         <v>1</v>
       </c>
@@ -5323,7 +5328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -5349,7 +5354,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -5375,7 +5380,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -5401,7 +5406,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -5427,7 +5432,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -5453,7 +5458,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -5479,7 +5484,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -5505,7 +5510,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -5525,7 +5530,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -5545,7 +5550,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -5586,7 +5591,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -5607,7 +5612,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -5628,7 +5633,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -5649,7 +5654,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -5670,7 +5675,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -5712,7 +5717,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -5733,7 +5738,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -5775,7 +5780,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -5796,7 +5801,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -5817,7 +5822,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -5838,7 +5843,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -5880,7 +5885,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -5901,7 +5906,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -5943,7 +5948,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -5964,7 +5969,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -5985,7 +5990,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -5994,7 +5999,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -6003,7 +6008,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -6012,7 +6017,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -6021,7 +6026,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -6030,7 +6035,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -6039,7 +6044,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -6048,7 +6053,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -6057,7 +6062,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -6066,7 +6071,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -6075,7 +6080,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -6084,7 +6089,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -6093,7 +6098,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -6102,7 +6107,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -6111,7 +6116,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -6120,7 +6125,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -6129,7 +6134,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -6138,7 +6143,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -6147,7 +6152,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -6156,7 +6161,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -6165,7 +6170,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -6174,7 +6179,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -6183,7 +6188,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -6192,7 +6197,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -6201,7 +6206,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -6210,7 +6215,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -6219,7 +6224,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -6228,7 +6233,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -6237,7 +6242,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -6246,7 +6251,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/VARGAS, MELINDA MAALA.xlsx
+++ b/NEW HR/VARGAS, MELINDA MAALA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C460C-EE42-4533-B2F4-C896326B21AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,7 +230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -610,17 +609,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -630,6 +626,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,25 +1157,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1188,25 +1187,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1513,34 +1512,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A68" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1552,16 +1551,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1570,16 +1569,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1590,16 +1589,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1607,7 +1606,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1620,24 +1619,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1696,7 +1695,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -1718,7 +1717,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1738,7 +1737,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1758,7 +1757,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1778,7 +1777,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1798,7 +1797,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1818,7 +1817,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1838,7 +1837,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1858,7 +1857,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1878,7 +1877,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -1898,7 +1897,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -1918,7 +1917,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -1938,7 +1937,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -1962,7 +1961,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>45</v>
       </c>
@@ -1980,7 +1979,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2000,7 +1999,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2020,7 +2019,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2040,7 +2039,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2060,7 +2059,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2080,7 +2079,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2100,7 +2099,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2120,7 +2119,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2140,7 +2139,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2160,7 +2159,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2180,7 +2179,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2200,7 +2199,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2224,7 +2223,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>46</v>
       </c>
@@ -2242,7 +2241,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2262,7 +2261,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2282,7 +2281,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2302,7 +2301,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2322,7 +2321,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2342,7 +2341,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2362,7 +2361,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2382,7 +2381,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2402,7 +2401,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2422,7 +2421,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2442,7 +2441,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2462,7 +2461,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2486,7 +2485,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>47</v>
       </c>
@@ -2504,7 +2503,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2524,7 +2523,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2544,7 +2543,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2564,7 +2563,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2584,7 +2583,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2604,7 +2603,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2624,7 +2623,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2644,7 +2643,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2664,7 +2663,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2684,7 +2683,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2704,7 +2703,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2724,7 +2723,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2748,7 +2747,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
         <v>55</v>
       </c>
@@ -2766,7 +2765,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>44562</v>
       </c>
@@ -2786,7 +2785,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -2806,7 +2805,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>44621</v>
       </c>
@@ -2826,7 +2825,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>44652</v>
       </c>
@@ -2846,7 +2845,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>44682</v>
       </c>
@@ -2866,7 +2865,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>44713</v>
       </c>
@@ -2886,7 +2885,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>44743</v>
       </c>
@@ -2906,7 +2905,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>44774</v>
       </c>
@@ -2926,7 +2925,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="45"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>44805</v>
       </c>
@@ -2946,7 +2945,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="45"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>44835</v>
       </c>
@@ -2966,7 +2965,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="45"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>44866</v>
       </c>
@@ -2986,7 +2985,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44896</v>
       </c>
@@ -3010,7 +3009,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="45"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
         <v>59</v>
       </c>
@@ -3028,7 +3027,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>44927</v>
       </c>
@@ -3048,7 +3047,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>44958</v>
       </c>
@@ -3068,7 +3067,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>44986</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -3106,7 +3105,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -3122,7 +3121,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3138,7 +3137,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3154,7 +3153,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3170,7 +3169,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3186,7 +3185,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3202,7 +3201,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3218,7 +3217,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3234,7 +3233,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3250,7 +3249,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3266,7 +3265,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3282,7 +3281,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3298,7 +3297,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3314,7 +3313,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3330,7 +3329,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3346,7 +3345,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3362,7 +3361,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3378,7 +3377,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3394,7 +3393,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3410,7 +3409,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3426,7 +3425,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3442,7 +3441,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3458,7 +3457,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3474,7 +3473,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3490,7 +3489,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3506,7 +3505,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3522,7 +3521,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3538,7 +3537,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3554,7 +3553,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3570,7 +3569,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3586,7 +3585,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3602,7 +3601,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3618,7 +3617,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3634,7 +3633,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3650,7 +3649,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3666,7 +3665,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3682,7 +3681,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3698,7 +3697,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3714,7 +3713,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3730,7 +3729,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3746,7 +3745,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3762,7 +3761,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3778,7 +3777,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3794,7 +3793,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="15"/>
       <c r="C123" s="40"/>
@@ -3812,23 +3811,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3851,34 +3850,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A13" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3890,16 +3889,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3908,16 +3907,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3928,16 +3927,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3945,7 +3944,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3958,24 +3957,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4029,12 +4028,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>22.292000000000002</v>
+        <v>21.292000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>47</v>
       </c>
@@ -4052,7 +4051,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>44197</v>
       </c>
@@ -4074,7 +4073,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>44228</v>
       </c>
@@ -4096,7 +4095,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>44440</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -4140,7 +4139,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -4162,7 +4161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>55</v>
       </c>
@@ -4180,7 +4179,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>44713</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>49</v>
@@ -4226,7 +4225,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>44774</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>44805</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>44835</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>44866</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>44896</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>59</v>
       </c>
@@ -4364,7 +4363,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>44927</v>
       </c>
@@ -4388,7 +4387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>44958</v>
       </c>
@@ -4406,8 +4405,10 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>44986</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="37"/>
@@ -4422,8 +4423,10 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>45017</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="37"/>
@@ -4438,9 +4441,13 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="20"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="38">
+        <v>45047</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="37"/>
       <c r="E29" s="9"/>
@@ -4449,12 +4456,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="37"/>
+      <c r="H29" s="37">
+        <v>1</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="45">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -4470,7 +4481,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -4486,7 +4497,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -4502,7 +4513,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4518,7 +4529,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -4534,7 +4545,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4550,7 +4561,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4566,7 +4577,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4582,7 +4593,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4598,7 +4609,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4614,7 +4625,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4630,7 +4641,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4646,7 +4657,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4662,7 +4673,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4678,7 +4689,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4694,7 +4705,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4710,7 +4721,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4726,7 +4737,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4742,7 +4753,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4758,7 +4769,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4774,7 +4785,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4790,7 +4801,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4806,7 +4817,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4822,7 +4833,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4838,7 +4849,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4854,7 +4865,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4870,7 +4881,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4886,7 +4897,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4902,7 +4913,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4918,7 +4929,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4934,7 +4945,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4950,7 +4961,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4966,7 +4977,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4982,7 +4993,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4998,7 +5009,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5014,7 +5025,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5030,7 +5041,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5046,7 +5057,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5062,7 +5073,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5078,7 +5089,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5094,7 +5105,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5110,7 +5121,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5126,7 +5137,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="15"/>
       <c r="C72" s="40"/>
@@ -5157,10 +5168,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5183,28 +5194,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5217,7 +5228,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5246,7 +5257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>34.548000000000002</v>
       </c>
@@ -5270,17 +5281,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
@@ -5301,7 +5312,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="46">
         <v>1</v>
       </c>
@@ -5328,7 +5339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -5354,7 +5365,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -5380,7 +5391,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -5406,7 +5417,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -5432,7 +5443,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -5458,7 +5469,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -5484,7 +5495,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -5510,7 +5521,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -5530,7 +5541,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -5550,7 +5561,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -5570,7 +5581,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -5591,7 +5602,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -5633,7 +5644,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -5654,7 +5665,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -5675,7 +5686,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -5696,7 +5707,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -5717,7 +5728,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -5738,7 +5749,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -5759,7 +5770,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -5780,7 +5791,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -5801,7 +5812,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -5822,7 +5833,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -5843,7 +5854,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -5864,7 +5875,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -5885,7 +5896,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -5906,7 +5917,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -5927,7 +5938,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -5948,7 +5959,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -5969,7 +5980,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -5990,7 +6001,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -5999,7 +6010,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -6008,7 +6019,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -6017,7 +6028,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -6026,7 +6037,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -6035,7 +6046,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -6044,7 +6055,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -6053,7 +6064,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -6062,7 +6073,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -6071,7 +6082,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -6080,7 +6091,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -6089,7 +6100,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -6098,7 +6109,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -6107,7 +6118,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -6116,7 +6127,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -6125,7 +6136,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -6134,7 +6145,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -6143,7 +6154,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -6152,7 +6163,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -6161,7 +6172,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -6170,7 +6181,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -6179,7 +6190,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -6188,7 +6199,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -6197,7 +6208,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -6206,7 +6217,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -6215,7 +6226,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -6224,7 +6235,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -6233,7 +6244,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -6242,7 +6253,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -6251,7 +6262,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/VARGAS, MELINDA MAALA.xlsx
+++ b/NEW HR/VARGAS, MELINDA MAALA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C92644F-6DA9-412B-884F-B2F1676808C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -225,12 +226,18 @@
   </si>
   <si>
     <t>2/6 - 5/21/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>6/27,29-30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -609,14 +616,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -626,9 +636,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1140,7 +1147,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1157,25 +1164,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1187,25 +1194,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K69" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1512,34 +1519,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1551,16 +1558,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1569,16 +1576,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1589,16 +1596,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1606,7 +1613,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1619,24 +1626,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1680,7 +1687,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1690,12 +1697,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -1717,7 +1724,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1737,7 +1744,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1757,7 +1764,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1777,7 +1784,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1797,7 +1804,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1817,7 +1824,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1837,7 +1844,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1857,7 +1864,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1877,7 +1884,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -1897,7 +1904,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -1917,7 +1924,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -1937,7 +1944,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -1961,7 +1968,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>45</v>
       </c>
@@ -1979,7 +1986,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -1999,7 +2006,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2019,7 +2026,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2039,7 +2046,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2059,7 +2066,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2079,7 +2086,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2099,7 +2106,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2119,7 +2126,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2139,7 +2146,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2159,7 +2166,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2179,7 +2186,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2199,7 +2206,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2223,7 +2230,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>46</v>
       </c>
@@ -2241,7 +2248,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2261,7 +2268,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2281,7 +2288,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2301,7 +2308,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2321,7 +2328,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2341,7 +2348,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2361,7 +2368,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2381,7 +2388,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2401,7 +2408,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2421,7 +2428,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2441,7 +2448,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2461,7 +2468,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2485,7 +2492,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>47</v>
       </c>
@@ -2503,7 +2510,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2523,7 +2530,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2543,7 +2550,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2563,7 +2570,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2583,7 +2590,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2603,7 +2610,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2623,7 +2630,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2643,7 +2650,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2663,7 +2670,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2683,7 +2690,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2703,7 +2710,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2723,7 +2730,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2747,7 +2754,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
         <v>55</v>
       </c>
@@ -2765,7 +2772,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>44562</v>
       </c>
@@ -2785,7 +2792,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -2805,7 +2812,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>44621</v>
       </c>
@@ -2825,7 +2832,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>44652</v>
       </c>
@@ -2845,7 +2852,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>44682</v>
       </c>
@@ -2865,7 +2872,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>44713</v>
       </c>
@@ -2885,7 +2892,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>44743</v>
       </c>
@@ -2905,7 +2912,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>44774</v>
       </c>
@@ -2925,7 +2932,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="45"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>44805</v>
       </c>
@@ -2945,7 +2952,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="45"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>44835</v>
       </c>
@@ -2965,7 +2972,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="45"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>44866</v>
       </c>
@@ -2985,7 +2992,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>44896</v>
       </c>
@@ -3009,7 +3016,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="45"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
         <v>59</v>
       </c>
@@ -3027,7 +3034,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>44927</v>
       </c>
@@ -3047,7 +3054,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>44958</v>
       </c>
@@ -3067,20 +3074,22 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
         <v>44986</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="37"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="37"/>
       <c r="I78" s="9"/>
@@ -3089,40 +3098,50 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="38">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="37"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="37"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="37"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="37"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="38">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="37"/>
@@ -3137,8 +3156,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="38">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="37"/>
@@ -3153,8 +3174,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="38">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="37"/>
@@ -3169,8 +3192,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="38">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="37"/>
@@ -3185,8 +3210,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="38">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="37"/>
@@ -3201,8 +3228,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="38">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="37"/>
@@ -3217,8 +3246,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="38">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="37"/>
@@ -3233,7 +3264,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3249,7 +3280,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3265,7 +3296,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3281,7 +3312,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3297,7 +3328,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3313,7 +3344,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3329,7 +3360,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3345,7 +3376,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3361,7 +3392,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3377,7 +3408,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3393,7 +3424,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3409,7 +3440,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3425,7 +3456,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3441,7 +3472,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3457,7 +3488,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3473,7 +3504,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3489,7 +3520,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3505,7 +3536,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3521,7 +3552,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3537,7 +3568,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3553,7 +3584,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3569,7 +3600,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3585,7 +3616,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3601,7 +3632,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3617,7 +3648,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3633,7 +3664,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3649,7 +3680,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3665,7 +3696,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3681,7 +3712,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3697,7 +3728,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3713,7 +3744,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3729,7 +3760,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3745,7 +3776,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3761,7 +3792,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3777,7 +3808,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3793,7 +3824,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39"/>
       <c r="B123" s="15"/>
       <c r="C123" s="40"/>
@@ -3811,23 +3842,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3850,34 +3881,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K72"/>
+  <dimension ref="A2:K69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3889,16 +3920,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3907,16 +3938,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3927,16 +3958,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3944,7 +3975,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3957,24 +3988,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +4040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4018,7 +4049,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.548000000000002</v>
+        <v>25.548000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4033,7 +4064,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>47</v>
       </c>
@@ -4051,7 +4082,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>44197</v>
       </c>
@@ -4073,7 +4104,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>44228</v>
       </c>
@@ -4095,7 +4126,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>44440</v>
       </c>
@@ -4119,7 +4150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -4139,7 +4170,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -4161,7 +4192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>55</v>
       </c>
@@ -4179,7 +4210,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>44713</v>
       </c>
@@ -4203,7 +4234,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>49</v>
@@ -4225,7 +4256,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>44774</v>
       </c>
@@ -4249,7 +4280,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>44805</v>
       </c>
@@ -4273,7 +4304,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>44835</v>
       </c>
@@ -4297,7 +4328,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>44866</v>
       </c>
@@ -4321,7 +4352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>44896</v>
       </c>
@@ -4345,7 +4376,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>59</v>
       </c>
@@ -4363,7 +4394,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>44927</v>
       </c>
@@ -4387,11 +4418,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
-        <v>44958</v>
-      </c>
-      <c r="B26" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="37"/>
       <c r="E26" s="9"/>
@@ -4400,18 +4433,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="37">
+        <v>1</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="45">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
-        <v>44986</v>
-      </c>
-      <c r="B27" s="20"/>
+        <v>45096</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37">
+        <v>3</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="str">
@@ -4421,12 +4462,12 @@
       <c r="H27" s="37"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>45017</v>
-      </c>
+      <c r="K27" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="37"/>
@@ -4441,13 +4482,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
-        <v>45047</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>49</v>
-      </c>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="37"/>
       <c r="E29" s="9"/>
@@ -4456,16 +4493,12 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="37">
-        <v>1</v>
-      </c>
+      <c r="H29" s="37"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="45">
-        <v>45076</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -4481,7 +4514,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -4497,7 +4530,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -4513,7 +4546,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4529,7 +4562,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -4545,7 +4578,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4561,7 +4594,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4577,7 +4610,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4593,7 +4626,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4609,7 +4642,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4625,7 +4658,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4641,7 +4674,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4657,7 +4690,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4673,7 +4706,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4689,7 +4722,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4705,7 +4738,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4721,7 +4754,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4737,7 +4770,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4753,7 +4786,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4769,7 +4802,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4785,7 +4818,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4801,7 +4834,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4817,7 +4850,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4833,7 +4866,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4849,7 +4882,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4865,7 +4898,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4881,7 +4914,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4897,7 +4930,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4913,7 +4946,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4929,7 +4962,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4945,7 +4978,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4961,7 +4994,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4977,7 +5010,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4993,7 +5026,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5009,7 +5042,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5025,7 +5058,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5041,7 +5074,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5057,7 +5090,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5073,7 +5106,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5089,69 +5122,21 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="37"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="39"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
+      <c r="F69" s="15"/>
+      <c r="G69" s="40" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H69" s="37"/>
+      <c r="H69" s="41"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H71" s="37"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="15"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5168,10 +5153,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5194,28 +5179,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5228,7 +5213,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5257,7 +5242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>34.548000000000002</v>
       </c>
@@ -5281,17 +5266,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
@@ -5312,7 +5297,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="46">
         <v>1</v>
       </c>
@@ -5339,7 +5324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -5365,7 +5350,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -5391,7 +5376,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -5417,7 +5402,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -5443,7 +5428,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -5469,7 +5454,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -5495,7 +5480,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -5521,7 +5506,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -5541,7 +5526,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -5561,7 +5546,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -5581,7 +5566,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -5602,7 +5587,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -5623,7 +5608,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -5644,7 +5629,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -5665,7 +5650,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -5686,7 +5671,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -5707,7 +5692,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -5728,7 +5713,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -5749,7 +5734,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -5770,7 +5755,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -5791,7 +5776,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -5812,7 +5797,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -5833,7 +5818,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -5854,7 +5839,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -5875,7 +5860,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -5896,7 +5881,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -5917,7 +5902,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -5938,7 +5923,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -5959,7 +5944,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -5980,7 +5965,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -6001,7 +5986,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -6010,7 +5995,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -6019,7 +6004,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -6028,7 +6013,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -6037,7 +6022,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -6046,7 +6031,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -6055,7 +6040,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -6064,7 +6049,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -6073,7 +6058,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -6082,7 +6067,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -6091,7 +6076,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -6100,7 +6085,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -6109,7 +6094,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -6118,7 +6103,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -6127,7 +6112,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -6136,7 +6121,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -6145,7 +6130,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -6154,7 +6139,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -6163,7 +6148,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -6172,7 +6157,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -6181,7 +6166,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -6190,7 +6175,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -6199,7 +6184,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -6208,7 +6193,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -6217,7 +6202,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -6226,7 +6211,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -6235,7 +6220,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -6244,7 +6229,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -6253,7 +6238,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -6262,7 +6247,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/VARGAS, MELINDA MAALA.xlsx
+++ b/NEW HR/VARGAS, MELINDA MAALA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C92644F-6DA9-412B-884F-B2F1676808C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -237,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1147,7 +1146,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1164,25 +1163,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1194,25 +1193,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K69" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K69" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1519,34 +1518,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1566,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1585,7 +1584,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1605,7 +1604,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1613,7 +1612,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1626,7 +1625,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -1643,7 +1642,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1687,7 +1686,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1697,12 +1696,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>43</v>
       </c>
@@ -1724,7 +1723,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>43101</v>
       </c>
@@ -1744,7 +1743,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>43132</v>
       </c>
@@ -1764,7 +1763,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>43160</v>
       </c>
@@ -1784,7 +1783,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>43191</v>
       </c>
@@ -1804,7 +1803,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>43221</v>
       </c>
@@ -1824,7 +1823,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>43252</v>
       </c>
@@ -1844,7 +1843,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>43282</v>
       </c>
@@ -1864,7 +1863,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>43313</v>
       </c>
@@ -1884,7 +1883,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>43344</v>
       </c>
@@ -1904,7 +1903,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>43374</v>
       </c>
@@ -1924,7 +1923,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>43405</v>
       </c>
@@ -1944,7 +1943,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>43435</v>
       </c>
@@ -1968,7 +1967,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>45</v>
       </c>
@@ -1986,7 +1985,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>43466</v>
       </c>
@@ -2006,7 +2005,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>43497</v>
       </c>
@@ -2026,7 +2025,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>43525</v>
       </c>
@@ -2046,7 +2045,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>43556</v>
       </c>
@@ -2066,7 +2065,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>43586</v>
       </c>
@@ -2086,7 +2085,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>43617</v>
       </c>
@@ -2106,7 +2105,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>43647</v>
       </c>
@@ -2126,7 +2125,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>43678</v>
       </c>
@@ -2146,7 +2145,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>43709</v>
       </c>
@@ -2166,7 +2165,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>43739</v>
       </c>
@@ -2186,7 +2185,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>43770</v>
       </c>
@@ -2206,7 +2205,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>43800</v>
       </c>
@@ -2230,7 +2229,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>46</v>
       </c>
@@ -2248,7 +2247,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>43831</v>
       </c>
@@ -2268,7 +2267,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>43862</v>
       </c>
@@ -2288,7 +2287,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>43891</v>
       </c>
@@ -2308,7 +2307,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>43922</v>
       </c>
@@ -2328,7 +2327,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>43952</v>
       </c>
@@ -2348,7 +2347,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>43983</v>
       </c>
@@ -2368,7 +2367,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>44013</v>
       </c>
@@ -2388,7 +2387,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>44044</v>
       </c>
@@ -2408,7 +2407,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>44075</v>
       </c>
@@ -2428,7 +2427,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>44105</v>
       </c>
@@ -2448,7 +2447,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>44136</v>
       </c>
@@ -2468,7 +2467,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>44166</v>
       </c>
@@ -2492,7 +2491,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>47</v>
       </c>
@@ -2510,7 +2509,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>44197</v>
       </c>
@@ -2530,7 +2529,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>44228</v>
       </c>
@@ -2550,7 +2549,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>44256</v>
       </c>
@@ -2570,7 +2569,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44287</v>
       </c>
@@ -2590,7 +2589,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>44317</v>
       </c>
@@ -2610,7 +2609,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>44348</v>
       </c>
@@ -2630,7 +2629,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>44378</v>
       </c>
@@ -2650,7 +2649,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>44409</v>
       </c>
@@ -2670,7 +2669,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>44440</v>
       </c>
@@ -2690,7 +2689,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>44470</v>
       </c>
@@ -2710,7 +2709,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>44501</v>
       </c>
@@ -2730,7 +2729,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>44531</v>
       </c>
@@ -2754,7 +2753,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
         <v>55</v>
       </c>
@@ -2772,7 +2771,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>44562</v>
       </c>
@@ -2792,7 +2791,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>44593</v>
       </c>
@@ -2812,7 +2811,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>44621</v>
       </c>
@@ -2832,7 +2831,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>44652</v>
       </c>
@@ -2852,7 +2851,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>44682</v>
       </c>
@@ -2872,7 +2871,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>44713</v>
       </c>
@@ -2892,7 +2891,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="45"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>44743</v>
       </c>
@@ -2912,7 +2911,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>44774</v>
       </c>
@@ -2932,7 +2931,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="45"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>44805</v>
       </c>
@@ -2952,7 +2951,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="45"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>44835</v>
       </c>
@@ -2972,7 +2971,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="45"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>44866</v>
       </c>
@@ -2992,7 +2991,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44896</v>
       </c>
@@ -3016,7 +3015,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="45"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
         <v>59</v>
       </c>
@@ -3034,7 +3033,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>44927</v>
       </c>
@@ -3054,7 +3053,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>44958</v>
       </c>
@@ -3074,7 +3073,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>44986</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>45017</v>
       </c>
@@ -3118,7 +3117,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>45047</v>
       </c>
@@ -3138,79 +3137,87 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="37"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="37"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="37"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="37"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>45139</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="37"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="37"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>45170</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="37"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="37"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="45"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <v>45200</v>
       </c>
@@ -3228,7 +3235,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>45231</v>
       </c>
@@ -3246,7 +3253,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>45261</v>
       </c>
@@ -3264,7 +3271,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3280,7 +3287,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3296,7 +3303,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3312,7 +3319,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3328,7 +3335,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3344,7 +3351,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3360,7 +3367,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3376,7 +3383,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3392,7 +3399,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3408,7 +3415,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3424,7 +3431,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3440,7 +3447,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3456,7 +3463,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3472,7 +3479,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3488,7 +3495,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3504,7 +3511,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3520,7 +3527,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3536,7 +3543,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3552,7 +3559,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3568,7 +3575,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3584,7 +3591,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3600,7 +3607,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3616,7 +3623,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3632,7 +3639,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3648,7 +3655,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3664,7 +3671,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3680,7 +3687,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3696,7 +3703,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3712,7 +3719,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3728,7 +3735,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3744,7 +3751,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3760,7 +3767,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3776,7 +3783,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3792,7 +3799,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3808,7 +3815,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3824,7 +3831,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="15"/>
       <c r="C123" s="40"/>
@@ -3855,10 +3862,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3881,34 +3888,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3929,7 +3936,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3947,7 +3954,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3967,7 +3974,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3975,7 +3982,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3988,7 +3995,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4005,7 +4012,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4040,7 +4047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4059,12 +4066,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>21.292000000000002</v>
+        <v>20.292000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>47</v>
       </c>
@@ -4082,7 +4089,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>44197</v>
       </c>
@@ -4104,7 +4111,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>44228</v>
       </c>
@@ -4126,7 +4133,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>44440</v>
       </c>
@@ -4150,7 +4157,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -4170,7 +4177,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
         <v>53</v>
@@ -4192,7 +4199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>55</v>
       </c>
@@ -4210,7 +4217,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>44713</v>
       </c>
@@ -4234,7 +4241,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>49</v>
@@ -4256,7 +4263,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>44774</v>
       </c>
@@ -4280,7 +4287,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>44805</v>
       </c>
@@ -4304,7 +4311,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>44835</v>
       </c>
@@ -4328,7 +4335,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>44866</v>
       </c>
@@ -4352,7 +4359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>44896</v>
       </c>
@@ -4376,7 +4383,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>59</v>
       </c>
@@ -4394,7 +4401,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>44927</v>
       </c>
@@ -4418,7 +4425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>45047</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>45096</v>
       </c>
@@ -4466,9 +4473,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="20"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>45170</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="37"/>
       <c r="E28" s="9"/>
@@ -4477,12 +4488,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="37"/>
+      <c r="H28" s="37">
+        <v>1</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="45">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -4498,7 +4513,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -4514,7 +4529,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -4530,7 +4545,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -4546,7 +4561,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4562,7 +4577,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -4578,7 +4593,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4594,7 +4609,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4610,7 +4625,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4626,7 +4641,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4642,7 +4657,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4658,7 +4673,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4674,7 +4689,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4690,7 +4705,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4706,7 +4721,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4722,7 +4737,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4738,7 +4753,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4754,7 +4769,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4770,7 +4785,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4786,7 +4801,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4802,7 +4817,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4818,7 +4833,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4834,7 +4849,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4850,7 +4865,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4866,7 +4881,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4882,7 +4897,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4898,7 +4913,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4914,7 +4929,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4930,7 +4945,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4946,7 +4961,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4962,7 +4977,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4978,7 +4993,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4994,7 +5009,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -5010,7 +5025,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5026,7 +5041,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5042,7 +5057,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5058,7 +5073,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5074,7 +5089,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5090,7 +5105,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5106,7 +5121,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5122,7 +5137,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="15"/>
       <c r="C69" s="40"/>
@@ -5153,10 +5168,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5179,28 +5194,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5213,7 +5228,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5242,7 +5257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>34.548000000000002</v>
       </c>
@@ -5266,17 +5281,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
@@ -5297,7 +5312,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="46">
         <v>1</v>
       </c>
@@ -5324,7 +5339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -5350,7 +5365,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -5376,7 +5391,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -5402,7 +5417,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -5428,7 +5443,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -5454,7 +5469,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -5480,7 +5495,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -5506,7 +5521,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -5526,7 +5541,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -5546,7 +5561,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -5566,7 +5581,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -5587,7 +5602,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -5608,7 +5623,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -5629,7 +5644,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -5650,7 +5665,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -5671,7 +5686,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -5692,7 +5707,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -5713,7 +5728,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -5734,7 +5749,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -5755,7 +5770,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -5776,7 +5791,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -5797,7 +5812,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -5818,7 +5833,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -5839,7 +5854,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -5860,7 +5875,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -5881,7 +5896,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -5902,7 +5917,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -5923,7 +5938,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -5944,7 +5959,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -5965,7 +5980,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -5986,7 +6001,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -5995,7 +6010,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -6004,7 +6019,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -6013,7 +6028,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -6022,7 +6037,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -6031,7 +6046,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -6040,7 +6055,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -6049,7 +6064,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -6058,7 +6073,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -6067,7 +6082,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -6076,7 +6091,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -6085,7 +6100,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -6094,7 +6109,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -6103,7 +6118,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -6112,7 +6127,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -6121,7 +6136,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -6130,7 +6145,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -6139,7 +6154,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -6148,7 +6163,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -6157,7 +6172,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -6166,7 +6181,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -6175,7 +6190,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -6184,7 +6199,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -6193,7 +6208,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -6202,7 +6217,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -6211,7 +6226,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -6220,7 +6235,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -6229,7 +6244,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -6238,7 +6253,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -6247,7 +6262,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
